--- a/数据表/Map.xlsx
+++ b/数据表/Map.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="24045" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="t_Map" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>//注释，地图id</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>1V1场景</t>
+  </si>
+  <si>
+    <t>map_1V1.unity</t>
   </si>
   <si>
     <t>1V2场景</t>
@@ -692,7 +695,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -701,9 +704,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1055,8 +1055,8 @@
   <sheetPr/>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
@@ -1129,7 +1129,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>1001001</v>
       </c>
@@ -1138,6 +1138,9 @@
       </c>
       <c r="C4">
         <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1145,12 +1148,14 @@
         <v>1001002</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
